--- a/Covad/izabella.xlsx
+++ b/Covad/izabella.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="izabella" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1269,7 +1269,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1352,7 +1352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2014,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J444"/>
+  <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A347" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G367" sqref="G367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11932,249 +11931,6 @@
       <c r="J363" s="7" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E364" s="52"/>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E365" s="52"/>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E366" s="52"/>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E367" s="52"/>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E368" s="52"/>
-    </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E369" s="52"/>
-    </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E370" s="52"/>
-    </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E371" s="52"/>
-    </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E372" s="52"/>
-    </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E373" s="52"/>
-    </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E374" s="52"/>
-    </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E375" s="52"/>
-    </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E376" s="52"/>
-    </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E377" s="52"/>
-    </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E378" s="52"/>
-    </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E379" s="52"/>
-    </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E380" s="52"/>
-    </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E381" s="52"/>
-    </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E382" s="52"/>
-    </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E383" s="52"/>
-    </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E384" s="52"/>
-    </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E385" s="52"/>
-    </row>
-    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E386" s="52"/>
-    </row>
-    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E387" s="52"/>
-    </row>
-    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E388" s="52"/>
-    </row>
-    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E389" s="52"/>
-    </row>
-    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E390" s="52"/>
-    </row>
-    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E391" s="52"/>
-    </row>
-    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E392" s="52"/>
-    </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E393" s="52"/>
-    </row>
-    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E394" s="52"/>
-    </row>
-    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E395" s="52"/>
-    </row>
-    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E396" s="52"/>
-    </row>
-    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E397" s="52"/>
-    </row>
-    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E398" s="52"/>
-    </row>
-    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E399" s="52"/>
-    </row>
-    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E400" s="52"/>
-    </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E401" s="52"/>
-    </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E402" s="52"/>
-    </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E403" s="52"/>
-    </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E404" s="52"/>
-    </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E405" s="52"/>
-    </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E406" s="52"/>
-    </row>
-    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E407" s="52"/>
-    </row>
-    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E408" s="52"/>
-    </row>
-    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E409" s="52"/>
-    </row>
-    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E410" s="52"/>
-    </row>
-    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E411" s="52"/>
-    </row>
-    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E412" s="52"/>
-    </row>
-    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E413" s="52"/>
-    </row>
-    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E414" s="52"/>
-    </row>
-    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E415" s="52"/>
-    </row>
-    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E416" s="52"/>
-    </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E417" s="52"/>
-    </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E418" s="52"/>
-    </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E419" s="52"/>
-    </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E420" s="52"/>
-    </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E421" s="52"/>
-    </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E422" s="52"/>
-    </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E423" s="52"/>
-    </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E424" s="52"/>
-    </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E425" s="52"/>
-    </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E426" s="52"/>
-    </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E427" s="52"/>
-    </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E428" s="52"/>
-    </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E429" s="52"/>
-    </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E430" s="52"/>
-    </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E431" s="52"/>
-    </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E432" s="52"/>
-    </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E433" s="52"/>
-    </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E434" s="52"/>
-    </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E435" s="52"/>
-    </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E436" s="52"/>
-    </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E437" s="52"/>
-    </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E438" s="52"/>
-    </row>
-    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E439" s="52"/>
-    </row>
-    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E440" s="52"/>
-    </row>
-    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E441" s="52"/>
-    </row>
-    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E442" s="52"/>
-    </row>
-    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E443" s="52"/>
-    </row>
-    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E444" s="52"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D56">
